--- a/Files/5-16-18 GRE´s.xlsx
+++ b/Files/5-16-18 GRE´s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760"/>
+    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="05º GRE " sheetId="3" r:id="rId1"/>
@@ -433,9 +433,6 @@
     <t>NNL-7286</t>
   </si>
   <si>
-    <t>KIQ-8720</t>
-  </si>
-  <si>
     <t>SÃO JULIÃO</t>
   </si>
   <si>
@@ -488,6 +485,9 @@
   </si>
   <si>
     <t>SIMÕES</t>
+  </si>
+  <si>
+    <t>KZQ-8720</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="51" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>134</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>12</v>
@@ -1969,10 +1969,10 @@
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>5</v>
@@ -1983,13 +1983,13 @@
     </row>
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>131</v>
@@ -1997,10 +1997,10 @@
     </row>
     <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>6</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>5</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>7</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>7</v>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>4</v>
@@ -2066,11 +2066,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>143</v>
+      <c r="A19" s="57" t="s">
+        <v>142</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
@@ -2081,24 +2081,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>7</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>7</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>12</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>6</v>
@@ -2159,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Files/5-16-18 GRE´s.xlsx
+++ b/Files/5-16-18 GRE´s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="05º GRE " sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
   <si>
     <t>BOA HORA</t>
   </si>
@@ -271,9 +271,6 @@
     <t>HSI-0983</t>
   </si>
   <si>
-    <t>NMR-8777</t>
-  </si>
-  <si>
     <t>NMR-9010</t>
   </si>
   <si>
@@ -488,6 +485,15 @@
   </si>
   <si>
     <t>KZQ-8720</t>
+  </si>
+  <si>
+    <t>NMR-8H77</t>
+  </si>
+  <si>
+    <t>qtd = 21</t>
+  </si>
+  <si>
+    <t>conta com o etl de S. Julião essa vez</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -950,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -962,13 +971,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8C428E"/>
       <color rgb="FF05851D"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FFFFCC66"/>
       <color rgb="FFCCFF66"/>
-      <color rgb="FF8C428E"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1271,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1297,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -1338,8 +1347,8 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>116</v>
+      <c r="C6" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1415,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,8 +1497,8 @@
       <c r="B22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>109</v>
+      <c r="C22" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1524,7 +1533,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>38</v>
@@ -1542,7 +1551,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
@@ -1693,7 +1702,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="44"/>
     </row>
@@ -1748,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="45"/>
     </row>
@@ -1802,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,329 +1833,339 @@
         <v>2</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="D13" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>138</v>
+      <c r="A15" s="57" t="s">
+        <v>137</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="D27" s="60" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2159,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2216,7 @@
     </row>
     <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>62</v>
@@ -2208,18 +2227,18 @@
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>63</v>
@@ -2230,7 +2249,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>63</v>
@@ -2285,7 +2304,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>66</v>
@@ -2296,12 +2315,12 @@
     </row>
     <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2318,7 +2337,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>69</v>
@@ -2329,7 +2348,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>69</v>
@@ -2340,7 +2359,7 @@
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>69</v>
@@ -2351,7 +2370,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>69</v>
@@ -2362,7 +2381,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>69</v>
@@ -2373,7 +2392,7 @@
     </row>
     <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>69</v>
@@ -2384,7 +2403,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>73</v>
@@ -2395,18 +2414,18 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>99</v>
+      <c r="A22" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>73</v>
@@ -2417,7 +2436,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>74</v>
@@ -2439,7 +2458,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>74</v>
@@ -2450,7 +2469,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>74</v>
@@ -2461,7 +2480,7 @@
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>74</v>
@@ -2472,7 +2491,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>77</v>
@@ -2483,7 +2502,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>77</v>
@@ -2494,7 +2513,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>77</v>
@@ -2505,13 +2524,18 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Files/5-16-18 GRE´s.xlsx
+++ b/Files/5-16-18 GRE´s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760"/>
+    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="05º GRE " sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
   <si>
     <t>BOA HORA</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>conta com o etl de S. Julião essa vez</t>
+  </si>
+  <si>
+    <t>E OQF</t>
   </si>
 </sst>
 </file>
@@ -951,14 +954,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1280,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,11 +1299,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1314,7 +1317,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1325,7 +1328,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1337,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1343,7 +1346,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1352,7 +1355,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1364,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1373,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="59" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1381,7 +1384,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1393,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1401,7 +1404,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
@@ -1410,7 +1413,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1419,7 +1422,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1431,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1440,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1449,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="36" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1458,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1464,7 +1467,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1476,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1485,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1494,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -1502,7 +1505,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1514,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1520,7 +1523,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1531,7 +1534,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="2" t="s">
         <v>109</v>
       </c>
@@ -1540,7 +1543,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +1552,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="13" t="s">
         <v>110</v>
       </c>
@@ -1558,7 +1561,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
@@ -1567,7 +1570,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1576,7 +1579,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1588,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1594,7 +1597,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1603,7 +1606,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
@@ -1612,7 +1615,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
@@ -1621,7 +1624,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="59" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1632,7 +1635,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1644,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1653,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1662,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1671,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1680,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1689,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1698,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="59" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1718,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
@@ -1724,7 +1727,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="10" t="s">
         <v>6</v>
       </c>
@@ -1733,7 +1736,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1743,7 +1746,7 @@
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="10" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1755,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1765,7 @@
       <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1774,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1783,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1811,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +1994,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="57" t="s">
         <v>134</v>
       </c>
       <c r="B13" s="51" t="s">
@@ -2159,13 +2162,18 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="58" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="58" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="58" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Files/5-16-18 GRE´s.xlsx
+++ b/Files/5-16-18 GRE´s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="05º GRE " sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="153">
   <si>
     <t>BOA HORA</t>
   </si>
@@ -424,9 +424,6 @@
     <t>KFG-1774</t>
   </si>
   <si>
-    <t>16ª</t>
-  </si>
-  <si>
     <t>NNL-7286</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
   </si>
   <si>
     <t>NNL-9356</t>
-  </si>
-  <si>
-    <t>16]</t>
   </si>
   <si>
     <t>HZA-2227</t>
@@ -617,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,6 +726,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF05851D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -785,7 +785,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -936,9 +936,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,6 +959,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -974,8 +977,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF05851D"/>
       <color rgb="FF8C428E"/>
-      <color rgb="FF05851D"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FFFFFF66"/>
@@ -1283,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,11 +1302,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1317,7 +1320,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1328,7 +1331,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1340,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1349,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1358,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1364,7 +1367,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1376,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1384,7 +1387,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1396,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1404,7 +1407,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1416,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1425,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1434,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1443,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1452,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="36" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1461,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1470,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1488,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1497,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -1505,7 +1508,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
@@ -1514,7 +1517,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1526,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="58" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1534,7 +1537,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="2" t="s">
         <v>109</v>
       </c>
@@ -1543,7 +1546,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1552,7 +1555,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="13" t="s">
         <v>110</v>
       </c>
@@ -1561,7 +1564,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
@@ -1570,7 +1573,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1579,7 +1582,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +1591,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1597,7 +1600,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1606,7 +1609,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="58"/>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
@@ -1615,7 +1618,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
@@ -1624,7 +1627,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1635,7 +1638,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1647,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1656,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +1665,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1674,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1680,7 +1683,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1692,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1698,7 +1701,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="58" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -1709,7 +1712,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
@@ -1718,7 +1721,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1730,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="58"/>
       <c r="B47" s="10" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +1739,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="58"/>
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1746,7 +1749,7 @@
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="10" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1758,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1768,7 @@
       <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1777,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
@@ -1783,7 +1786,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1816,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1843,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -1882,7 +1885,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -1948,12 +1951,12 @@
         <v>10</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
-        <v>131</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>126</v>
@@ -1967,10 +1970,10 @@
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>12</v>
@@ -1981,66 +1984,66 @@
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>136</v>
-      </c>
       <c r="B14" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>130</v>
+      <c r="D14" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>137</v>
+      <c r="A15" s="56" t="s">
+        <v>136</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>130</v>
+      <c r="D15" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>148</v>
+      <c r="A16" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>146</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>7</v>
@@ -2051,10 +2054,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>148</v>
+        <v>138</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>146</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>7</v>
@@ -2064,11 +2067,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>149</v>
+      <c r="A18" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>4</v>
@@ -2078,11 +2081,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>149</v>
+      <c r="A19" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
@@ -2093,24 +2096,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>149</v>
+        <v>141</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>149</v>
+      <c r="A21" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>7</v>
@@ -2120,39 +2123,39 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>149</v>
+      <c r="A22" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="54" t="s">
         <v>147</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>149</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>6</v>
@@ -2162,18 +2165,18 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="D27" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="57" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="D27" s="58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="58" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2186,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2254,7 @@
       <c r="B5" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="61" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2323,7 +2326,7 @@
     </row>
     <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>66</v>
@@ -2427,7 +2430,7 @@
       <c r="B21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="60" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2449,7 +2452,7 @@
       <c r="B23" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="61" t="s">
         <v>71</v>
       </c>
     </row>

--- a/Files/5-16-18 GRE´s.xlsx
+++ b/Files/5-16-18 GRE´s.xlsx
@@ -611,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,12 +726,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF05851D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -785,7 +779,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,9 +915,6 @@
     <xf numFmtId="49" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,12 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1286,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,11 +1287,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1320,7 +1305,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1331,7 +1316,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1340,7 +1325,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1334,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1343,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1352,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1361,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1387,7 +1372,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1381,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1407,7 +1392,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
@@ -1416,7 +1401,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1410,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1434,7 +1419,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1428,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1437,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="36" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1446,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1470,7 +1455,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1464,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1473,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1482,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -1508,7 +1493,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1502,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1526,7 +1511,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="57" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1537,7 +1522,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="2" t="s">
         <v>109</v>
       </c>
@@ -1546,7 +1531,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1540,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="13" t="s">
         <v>110</v>
       </c>
@@ -1564,7 +1549,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
@@ -1573,7 +1558,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
@@ -1582,7 +1567,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
@@ -1591,7 +1576,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1600,7 +1585,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1609,7 +1594,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
@@ -1618,7 +1603,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
@@ -1627,7 +1612,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="57" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1638,7 +1623,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
@@ -1647,7 +1632,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1641,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1665,16 +1650,16 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1683,7 +1668,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1677,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1701,7 +1686,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="57" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -1712,7 +1697,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
@@ -1721,7 +1706,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1715,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="10" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1724,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
@@ -1749,7 +1734,7 @@
       <c r="D48" s="44"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="10" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +1743,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1768,7 +1753,7 @@
       <c r="D50" s="45"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1762,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1771,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
@@ -1819,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,15 +1823,15 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -1860,7 +1845,7 @@
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1874,7 +1859,7 @@
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1885,10 +1870,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -1955,7 +1940,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1972,7 +1957,7 @@
       <c r="A11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1986,7 +1971,7 @@
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -1997,10 +1982,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2011,10 +1996,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -2025,10 +2010,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>131</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -2039,10 +2024,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -2056,7 +2041,7 @@
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>146</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -2067,10 +2052,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -2081,10 +2066,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -2098,7 +2083,7 @@
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -2109,10 +2094,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -2123,10 +2108,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -2140,7 +2125,7 @@
       <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -2154,7 +2139,7 @@
       <c r="A24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -2165,17 +2150,17 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="56" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="56" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="56" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2190,7 +2175,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2239,7 @@
       <c r="B5" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2287,7 +2272,7 @@
       <c r="B8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2320,7 +2305,7 @@
       <c r="B11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2353,7 +2338,7 @@
       <c r="B14" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2364,7 +2349,7 @@
       <c r="B15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2430,7 +2415,7 @@
       <c r="B21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2441,7 +2426,7 @@
       <c r="B22" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2452,7 +2437,7 @@
       <c r="B23" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2463,7 +2448,7 @@
       <c r="B24" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2485,7 +2470,7 @@
       <c r="B26" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Files/5-16-18 GRE´s.xlsx
+++ b/Files/5-16-18 GRE´s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="195" windowWidth="7470" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="05º GRE " sheetId="3" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>LWI-6309</t>
   </si>
   <si>
-    <t>KKQ9D10</t>
-  </si>
-  <si>
     <t>KKT-7770</t>
   </si>
   <si>
@@ -484,13 +481,16 @@
     <t>NMR-8H77</t>
   </si>
   <si>
-    <t>qtd = 21</t>
-  </si>
-  <si>
     <t>conta com o etl de S. Julião essa vez</t>
   </si>
   <si>
     <t>E OQF</t>
+  </si>
+  <si>
+    <t>qtd = 22</t>
+  </si>
+  <si>
+    <t>KKQ-9D10</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,12 +698,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -779,7 +773,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -886,9 +880,6 @@
     <xf numFmtId="49" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,44 +889,35 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,6 +926,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1271,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,11 +1272,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1305,27 +1290,27 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1319,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1343,36 +1328,36 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="54" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1366,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1392,16 +1377,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1410,16 +1395,16 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1413,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1437,16 +1422,16 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +1440,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1449,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1458,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1467,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="31" t="s">
@@ -1493,7 +1478,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
@@ -1502,7 +1487,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1511,7 +1496,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="54" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1522,25 +1507,25 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="13" t="s">
         <v>110</v>
       </c>
@@ -1549,70 +1534,70 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="54" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1623,52 +1608,52 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1677,16 +1662,16 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -1697,16 +1682,16 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1700,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="10" t="s">
         <v>6</v>
       </c>
@@ -1724,58 +1709,58 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="37" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1804,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,15 +1808,15 @@
       <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -1845,7 +1830,7 @@
       <c r="A3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>120</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1859,7 +1844,7 @@
       <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1870,10 +1855,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -1885,10 +1870,10 @@
     </row>
     <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>12</v>
@@ -1899,10 +1884,10 @@
     </row>
     <row r="7" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>5</v>
@@ -1913,10 +1898,10 @@
     </row>
     <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>5</v>
@@ -1927,10 +1912,10 @@
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>10</v>
@@ -1940,11 +1925,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>130</v>
+      <c r="A10" s="50" t="s">
+        <v>129</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>5</v>
@@ -1955,10 +1940,10 @@
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>131</v>
+        <v>147</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>12</v>
@@ -1969,10 +1954,10 @@
     </row>
     <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="50" t="s">
         <v>131</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>5</v>
@@ -1982,25 +1967,25 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>131</v>
+      <c r="A14" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>6</v>
@@ -2010,11 +1995,11 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>131</v>
+      <c r="A15" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>5</v>
@@ -2024,11 +2009,11 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>146</v>
+      <c r="A16" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>145</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>7</v>
@@ -2039,10 +2024,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>145</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>7</v>
@@ -2052,11 +2037,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>147</v>
+      <c r="A18" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>4</v>
@@ -2066,11 +2051,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>147</v>
+      <c r="A19" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
@@ -2081,10 +2066,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>7</v>
@@ -2094,11 +2079,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>147</v>
+      <c r="A21" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>7</v>
@@ -2108,11 +2093,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>147</v>
+      <c r="A22" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>7</v>
@@ -2123,10 +2108,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>12</v>
@@ -2137,10 +2122,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>6</v>
@@ -2150,18 +2135,18 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="D27" s="52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="52" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="48" x14ac:dyDescent="0.25">
-      <c r="D27" s="56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="56" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2174,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,7 +2296,7 @@
     </row>
     <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>66</v>
@@ -2332,7 +2317,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -2420,7 +2405,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="40" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -2497,7 +2482,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="40" t="s">
         <v>96</v>
       </c>
       <c r="B29" s="21" t="s">
